--- a/Tenants_Details.xlsx
+++ b/Tenants_Details.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F650DB-7D2F-4AD5-AECA-E5C6B8F10263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40017612\Desktop\Scripts\Auto_PW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50152209-51C2-45A2-8C97-A89530C44906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11440" yWindow="10690" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,8 +368,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,21 +429,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B3F7ABB-E3E8-4E7B-B901-905C6BF72E0F}" name="Table1" displayName="Table1" ref="A1:J187" totalsRowShown="0">
-  <autoFilter ref="A1:J187" xr:uid="{4B3F7ABB-E3E8-4E7B-B901-905C6BF72E0F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J187" totalsRowShown="0">
+  <autoFilter ref="A1:J187"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5481F6E6-5A79-40DF-ADE1-4CE07D5B2C6E}" name="DisplayName"/>
-    <tableColumn id="2" xr3:uid="{A54B89E0-D341-4541-AA4C-1FAC4B6258EF}" name="GivenName"/>
-    <tableColumn id="3" xr3:uid="{16197A7E-30B0-475A-99AF-B629ACC89B2B}" name="ID"/>
-    <tableColumn id="4" xr3:uid="{4968CEC8-460C-4196-BB1D-1B2DBF407D95}" name="JobTitle"/>
-    <tableColumn id="5" xr3:uid="{B42A3756-D137-440B-9B65-E1CA4CC2C520}" name="Email"/>
-    <tableColumn id="6" xr3:uid="{9428DAF2-951E-4B33-BBE6-358A51571A00}" name="Phone"/>
-    <tableColumn id="7" xr3:uid="{46FFFAE8-F6C4-4EFA-80BF-3E2BD005A708}" name="Location"/>
-    <tableColumn id="8" xr3:uid="{861225CC-8FC4-4CDF-A200-8FDB123E7922}" name="Language"/>
-    <tableColumn id="9" xr3:uid="{F440F866-85C0-4F68-8954-DC5309377A99}" name="Surname">
-      <calculatedColumnFormula>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</calculatedColumnFormula>
+    <tableColumn id="1" name="DisplayName"/>
+    <tableColumn id="2" name="GivenName"/>
+    <tableColumn id="3" name="ID"/>
+    <tableColumn id="4" name="JobTitle"/>
+    <tableColumn id="5" name="Email"/>
+    <tableColumn id="6" name="Phone"/>
+    <tableColumn id="7" name="Location"/>
+    <tableColumn id="8" name="Language"/>
+    <tableColumn id="9" name="Surname">
+      <calculatedColumnFormula>RIGHT(Sheet1!$A2, LEN(Sheet1!$A2) - FIND(" ", Sheet1!$A2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{51540BD8-E234-4B86-B003-208B1BB547B4}" name="UserName"/>
+    <tableColumn id="10" name="UserName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -740,14 +745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -758,7 +763,7 @@
     <col min="10" max="10" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -816,14 +821,14 @@
         <v>15</v>
       </c>
       <c r="I2" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A2, LEN(Sheet1!$A2) - FIND(" ", Sheet1!$A2))</f>
         <v>Abbott</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -849,14 +854,14 @@
         <v>22</v>
       </c>
       <c r="I3" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A3, LEN(Sheet1!$A3) - FIND(" ", Sheet1!$A3))</f>
         <v>Vance</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -882,14 +887,14 @@
         <v>22</v>
       </c>
       <c r="I4" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A4, LEN(Sheet1!$A4) - FIND(" ", Sheet1!$A4))</f>
         <v>Wilber</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -915,14 +920,14 @@
         <v>22</v>
       </c>
       <c r="I5" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A5, LEN(Sheet1!$A5) - FIND(" ", Sheet1!$A5))</f>
         <v>Siciliani</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -948,14 +953,14 @@
         <v>22</v>
       </c>
       <c r="I6" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A6, LEN(Sheet1!$A6) - FIND(" ", Sheet1!$A6))</f>
         <v>Archie</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -981,14 +986,14 @@
         <v>22</v>
       </c>
       <c r="I7" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A7, LEN(Sheet1!$A7) - FIND(" ", Sheet1!$A7))</f>
         <v>Mueller</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1014,14 +1019,14 @@
         <v>22</v>
       </c>
       <c r="I8" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A8, LEN(Sheet1!$A8) - FIND(" ", Sheet1!$A8))</f>
         <v>Langer</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1047,14 +1052,14 @@
         <v>22</v>
       </c>
       <c r="I9" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A9, LEN(Sheet1!$A9) - FIND(" ", Sheet1!$A9))</f>
         <v>Lorenz</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1080,14 +1085,14 @@
         <v>22</v>
       </c>
       <c r="I10" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A10, LEN(Sheet1!$A10) - FIND(" ", Sheet1!$A10))</f>
         <v>Sherman</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1113,14 +1118,14 @@
         <v>22</v>
       </c>
       <c r="I11" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A11, LEN(Sheet1!$A11) - FIND(" ", Sheet1!$A11))</f>
         <v>Gu</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1146,14 +1151,14 @@
         <v>22</v>
       </c>
       <c r="I12" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A12, LEN(Sheet1!$A12) - FIND(" ", Sheet1!$A12))</f>
         <v>Holloway</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1179,14 +1184,14 @@
         <v>22</v>
       </c>
       <c r="I13" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A13, LEN(Sheet1!$A13) - FIND(" ", Sheet1!$A13))</f>
         <v>Robbins</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1212,14 +1217,14 @@
         <v>22</v>
       </c>
       <c r="I14" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A14, LEN(Sheet1!$A14) - FIND(" ", Sheet1!$A14))</f>
         <v>Bowen</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1245,14 +1250,14 @@
         <v>22</v>
       </c>
       <c r="I15" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A15, LEN(Sheet1!$A15) - FIND(" ", Sheet1!$A15))</f>
         <v>Graham</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1278,14 +1283,14 @@
         <v>22</v>
       </c>
       <c r="I16" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A16, LEN(Sheet1!$A16) - FIND(" ", Sheet1!$A16))</f>
         <v>Wilke</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -1311,14 +1316,14 @@
         <v>22</v>
       </c>
       <c r="I17" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A17, LEN(Sheet1!$A17) - FIND(" ", Sheet1!$A17))</f>
         <v>Fernandez</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1344,1063 +1349,1063 @@
         <v>22</v>
       </c>
       <c r="I18" t="str">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A18, LEN(Sheet1!$A18) - FIND(" ", Sheet1!$A18))</f>
         <v>Gupta</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I19" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <f>RIGHT(Sheet1!$A19, LEN(Sheet1!$A19) - FIND(" ", Sheet1!$A19))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I20" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <f>RIGHT(Sheet1!$A20, LEN(Sheet1!$A20) - FIND(" ", Sheet1!$A20))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I21" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <f>RIGHT(Sheet1!$A21, LEN(Sheet1!$A21) - FIND(" ", Sheet1!$A21))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I22" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <f>RIGHT(Sheet1!$A22, LEN(Sheet1!$A22) - FIND(" ", Sheet1!$A22))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I23" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <f>RIGHT(Sheet1!$A23, LEN(Sheet1!$A23) - FIND(" ", Sheet1!$A23))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I24" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <f>RIGHT(Sheet1!$A24, LEN(Sheet1!$A24) - FIND(" ", Sheet1!$A24))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I25" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <f>RIGHT(Sheet1!$A25, LEN(Sheet1!$A25) - FIND(" ", Sheet1!$A25))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I26" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <f>RIGHT(Sheet1!$A26, LEN(Sheet1!$A26) - FIND(" ", Sheet1!$A26))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I27" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <f>RIGHT(Sheet1!$A27, LEN(Sheet1!$A27) - FIND(" ", Sheet1!$A27))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I28" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <f>RIGHT(Sheet1!$A28, LEN(Sheet1!$A28) - FIND(" ", Sheet1!$A28))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I29" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <f>RIGHT(Sheet1!$A29, LEN(Sheet1!$A29) - FIND(" ", Sheet1!$A29))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I30" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <f>RIGHT(Sheet1!$A30, LEN(Sheet1!$A30) - FIND(" ", Sheet1!$A30))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I31" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <f>RIGHT(Sheet1!$A31, LEN(Sheet1!$A31) - FIND(" ", Sheet1!$A31))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I32" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9">
+        <f>RIGHT(Sheet1!$A32, LEN(Sheet1!$A32) - FIND(" ", Sheet1!$A32))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I33" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9">
+        <f>RIGHT(Sheet1!$A33, LEN(Sheet1!$A33) - FIND(" ", Sheet1!$A33))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9">
+        <f>RIGHT(Sheet1!$A34, LEN(Sheet1!$A34) - FIND(" ", Sheet1!$A34))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I35" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9">
+        <f>RIGHT(Sheet1!$A35, LEN(Sheet1!$A35) - FIND(" ", Sheet1!$A35))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I36" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9">
+        <f>RIGHT(Sheet1!$A36, LEN(Sheet1!$A36) - FIND(" ", Sheet1!$A36))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9">
+        <f>RIGHT(Sheet1!$A37, LEN(Sheet1!$A37) - FIND(" ", Sheet1!$A37))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9">
+        <f>RIGHT(Sheet1!$A38, LEN(Sheet1!$A38) - FIND(" ", Sheet1!$A38))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I39" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9">
+        <f>RIGHT(Sheet1!$A39, LEN(Sheet1!$A39) - FIND(" ", Sheet1!$A39))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="9:9">
+        <f>RIGHT(Sheet1!$A40, LEN(Sheet1!$A40) - FIND(" ", Sheet1!$A40))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I41" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9">
+        <f>RIGHT(Sheet1!$A41, LEN(Sheet1!$A41) - FIND(" ", Sheet1!$A41))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I42" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9">
+        <f>RIGHT(Sheet1!$A42, LEN(Sheet1!$A42) - FIND(" ", Sheet1!$A42))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I43" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="9:9">
+        <f>RIGHT(Sheet1!$A43, LEN(Sheet1!$A43) - FIND(" ", Sheet1!$A43))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I44" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="9:9">
+        <f>RIGHT(Sheet1!$A44, LEN(Sheet1!$A44) - FIND(" ", Sheet1!$A44))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I45" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="9:9">
+        <f>RIGHT(Sheet1!$A45, LEN(Sheet1!$A45) - FIND(" ", Sheet1!$A45))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I46" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9">
+        <f>RIGHT(Sheet1!$A46, LEN(Sheet1!$A46) - FIND(" ", Sheet1!$A46))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I47" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="9:9">
+        <f>RIGHT(Sheet1!$A47, LEN(Sheet1!$A47) - FIND(" ", Sheet1!$A47))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I48" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9">
+        <f>RIGHT(Sheet1!$A48, LEN(Sheet1!$A48) - FIND(" ", Sheet1!$A48))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9">
+        <f>RIGHT(Sheet1!$A49, LEN(Sheet1!$A49) - FIND(" ", Sheet1!$A49))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9">
+        <f>RIGHT(Sheet1!$A50, LEN(Sheet1!$A50) - FIND(" ", Sheet1!$A50))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9">
+        <f>RIGHT(Sheet1!$A51, LEN(Sheet1!$A51) - FIND(" ", Sheet1!$A51))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9">
+        <f>RIGHT(Sheet1!$A52, LEN(Sheet1!$A52) - FIND(" ", Sheet1!$A52))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9">
+        <f>RIGHT(Sheet1!$A53, LEN(Sheet1!$A53) - FIND(" ", Sheet1!$A53))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9">
+        <f>RIGHT(Sheet1!$A54, LEN(Sheet1!$A54) - FIND(" ", Sheet1!$A54))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9">
+        <f>RIGHT(Sheet1!$A55, LEN(Sheet1!$A55) - FIND(" ", Sheet1!$A55))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9">
+        <f>RIGHT(Sheet1!$A56, LEN(Sheet1!$A56) - FIND(" ", Sheet1!$A56))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="9:9">
+        <f>RIGHT(Sheet1!$A57, LEN(Sheet1!$A57) - FIND(" ", Sheet1!$A57))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I58" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9">
+        <f>RIGHT(Sheet1!$A58, LEN(Sheet1!$A58) - FIND(" ", Sheet1!$A58))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9">
+        <f>RIGHT(Sheet1!$A59, LEN(Sheet1!$A59) - FIND(" ", Sheet1!$A59))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I60" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="9:9">
+        <f>RIGHT(Sheet1!$A60, LEN(Sheet1!$A60) - FIND(" ", Sheet1!$A60))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I61" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="9:9">
+        <f>RIGHT(Sheet1!$A61, LEN(Sheet1!$A61) - FIND(" ", Sheet1!$A61))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I62" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9">
+        <f>RIGHT(Sheet1!$A62, LEN(Sheet1!$A62) - FIND(" ", Sheet1!$A62))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I63" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="9:9">
+        <f>RIGHT(Sheet1!$A63, LEN(Sheet1!$A63) - FIND(" ", Sheet1!$A63))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I64" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9">
+        <f>RIGHT(Sheet1!$A64, LEN(Sheet1!$A64) - FIND(" ", Sheet1!$A64))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9">
+        <f>RIGHT(Sheet1!$A65, LEN(Sheet1!$A65) - FIND(" ", Sheet1!$A65))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9">
+        <f>RIGHT(Sheet1!$A66, LEN(Sheet1!$A66) - FIND(" ", Sheet1!$A66))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9">
+        <f>RIGHT(Sheet1!$A67, LEN(Sheet1!$A67) - FIND(" ", Sheet1!$A67))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9">
+        <f>RIGHT(Sheet1!$A68, LEN(Sheet1!$A68) - FIND(" ", Sheet1!$A68))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9">
+        <f>RIGHT(Sheet1!$A69, LEN(Sheet1!$A69) - FIND(" ", Sheet1!$A69))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9">
+        <f>RIGHT(Sheet1!$A70, LEN(Sheet1!$A70) - FIND(" ", Sheet1!$A70))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9">
+        <f>RIGHT(Sheet1!$A71, LEN(Sheet1!$A71) - FIND(" ", Sheet1!$A71))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9">
+        <f>RIGHT(Sheet1!$A72, LEN(Sheet1!$A72) - FIND(" ", Sheet1!$A72))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I73" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9">
+        <f>RIGHT(Sheet1!$A73, LEN(Sheet1!$A73) - FIND(" ", Sheet1!$A73))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I74" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9">
+        <f>RIGHT(Sheet1!$A74, LEN(Sheet1!$A74) - FIND(" ", Sheet1!$A74))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="76" spans="9:9">
+        <f>RIGHT(Sheet1!$A75, LEN(Sheet1!$A75) - FIND(" ", Sheet1!$A75))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I76" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9">
+        <f>RIGHT(Sheet1!$A76, LEN(Sheet1!$A76) - FIND(" ", Sheet1!$A76))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="9:9">
+        <f>RIGHT(Sheet1!$A77, LEN(Sheet1!$A77) - FIND(" ", Sheet1!$A77))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I78" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9">
+        <f>RIGHT(Sheet1!$A78, LEN(Sheet1!$A78) - FIND(" ", Sheet1!$A78))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="9:9">
+        <f>RIGHT(Sheet1!$A79, LEN(Sheet1!$A79) - FIND(" ", Sheet1!$A79))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I80" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="9:9">
+        <f>RIGHT(Sheet1!$A80, LEN(Sheet1!$A80) - FIND(" ", Sheet1!$A80))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="9:9">
+        <f>RIGHT(Sheet1!$A81, LEN(Sheet1!$A81) - FIND(" ", Sheet1!$A81))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I82" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="9:9">
+        <f>RIGHT(Sheet1!$A82, LEN(Sheet1!$A82) - FIND(" ", Sheet1!$A82))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="9:9">
+        <f>RIGHT(Sheet1!$A83, LEN(Sheet1!$A83) - FIND(" ", Sheet1!$A83))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I84" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="9:9">
+        <f>RIGHT(Sheet1!$A84, LEN(Sheet1!$A84) - FIND(" ", Sheet1!$A84))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I85" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="9:9">
+        <f>RIGHT(Sheet1!$A85, LEN(Sheet1!$A85) - FIND(" ", Sheet1!$A85))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I86" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="9:9">
+        <f>RIGHT(Sheet1!$A86, LEN(Sheet1!$A86) - FIND(" ", Sheet1!$A86))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I87" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="9:9">
+        <f>RIGHT(Sheet1!$A87, LEN(Sheet1!$A87) - FIND(" ", Sheet1!$A87))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I88" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="9:9">
+        <f>RIGHT(Sheet1!$A88, LEN(Sheet1!$A88) - FIND(" ", Sheet1!$A88))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I89" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="9:9">
+        <f>RIGHT(Sheet1!$A89, LEN(Sheet1!$A89) - FIND(" ", Sheet1!$A89))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I90" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="91" spans="9:9">
+        <f>RIGHT(Sheet1!$A90, LEN(Sheet1!$A90) - FIND(" ", Sheet1!$A90))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I91" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="92" spans="9:9">
+        <f>RIGHT(Sheet1!$A91, LEN(Sheet1!$A91) - FIND(" ", Sheet1!$A91))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I92" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="93" spans="9:9">
+        <f>RIGHT(Sheet1!$A92, LEN(Sheet1!$A92) - FIND(" ", Sheet1!$A92))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I93" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="94" spans="9:9">
+        <f>RIGHT(Sheet1!$A93, LEN(Sheet1!$A93) - FIND(" ", Sheet1!$A93))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I94" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="95" spans="9:9">
+        <f>RIGHT(Sheet1!$A94, LEN(Sheet1!$A94) - FIND(" ", Sheet1!$A94))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I95" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="96" spans="9:9">
+        <f>RIGHT(Sheet1!$A95, LEN(Sheet1!$A95) - FIND(" ", Sheet1!$A95))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I96" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9">
+        <f>RIGHT(Sheet1!$A96, LEN(Sheet1!$A96) - FIND(" ", Sheet1!$A96))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I97" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98" spans="9:9">
+        <f>RIGHT(Sheet1!$A97, LEN(Sheet1!$A97) - FIND(" ", Sheet1!$A97))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I98" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99" spans="9:9">
+        <f>RIGHT(Sheet1!$A98, LEN(Sheet1!$A98) - FIND(" ", Sheet1!$A98))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I99" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="100" spans="9:9">
+        <f>RIGHT(Sheet1!$A99, LEN(Sheet1!$A99) - FIND(" ", Sheet1!$A99))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I100" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="101" spans="9:9">
+        <f>RIGHT(Sheet1!$A100, LEN(Sheet1!$A100) - FIND(" ", Sheet1!$A100))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I101" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="102" spans="9:9">
+        <f>RIGHT(Sheet1!$A101, LEN(Sheet1!$A101) - FIND(" ", Sheet1!$A101))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I102" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="103" spans="9:9">
+        <f>RIGHT(Sheet1!$A102, LEN(Sheet1!$A102) - FIND(" ", Sheet1!$A102))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I103" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="104" spans="9:9">
+        <f>RIGHT(Sheet1!$A103, LEN(Sheet1!$A103) - FIND(" ", Sheet1!$A103))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I104" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="105" spans="9:9">
+        <f>RIGHT(Sheet1!$A104, LEN(Sheet1!$A104) - FIND(" ", Sheet1!$A104))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I105" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="106" spans="9:9">
+        <f>RIGHT(Sheet1!$A105, LEN(Sheet1!$A105) - FIND(" ", Sheet1!$A105))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I106" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="107" spans="9:9">
+        <f>RIGHT(Sheet1!$A106, LEN(Sheet1!$A106) - FIND(" ", Sheet1!$A106))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I107" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9">
+        <f>RIGHT(Sheet1!$A107, LEN(Sheet1!$A107) - FIND(" ", Sheet1!$A107))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I108" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="109" spans="9:9">
+        <f>RIGHT(Sheet1!$A108, LEN(Sheet1!$A108) - FIND(" ", Sheet1!$A108))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I109" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="110" spans="9:9">
+        <f>RIGHT(Sheet1!$A109, LEN(Sheet1!$A109) - FIND(" ", Sheet1!$A109))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I110" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="111" spans="9:9">
+        <f>RIGHT(Sheet1!$A110, LEN(Sheet1!$A110) - FIND(" ", Sheet1!$A110))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I111" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="112" spans="9:9">
+        <f>RIGHT(Sheet1!$A111, LEN(Sheet1!$A111) - FIND(" ", Sheet1!$A111))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I112" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="113" spans="9:9">
+        <f>RIGHT(Sheet1!$A112, LEN(Sheet1!$A112) - FIND(" ", Sheet1!$A112))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I113" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="114" spans="9:9">
+        <f>RIGHT(Sheet1!$A113, LEN(Sheet1!$A113) - FIND(" ", Sheet1!$A113))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I114" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="115" spans="9:9">
+        <f>RIGHT(Sheet1!$A114, LEN(Sheet1!$A114) - FIND(" ", Sheet1!$A114))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I115" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="116" spans="9:9">
+        <f>RIGHT(Sheet1!$A115, LEN(Sheet1!$A115) - FIND(" ", Sheet1!$A115))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I116" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="117" spans="9:9">
+        <f>RIGHT(Sheet1!$A116, LEN(Sheet1!$A116) - FIND(" ", Sheet1!$A116))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I117" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="118" spans="9:9">
+        <f>RIGHT(Sheet1!$A117, LEN(Sheet1!$A117) - FIND(" ", Sheet1!$A117))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I118" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="119" spans="9:9">
+        <f>RIGHT(Sheet1!$A118, LEN(Sheet1!$A118) - FIND(" ", Sheet1!$A118))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I119" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="120" spans="9:9">
+        <f>RIGHT(Sheet1!$A119, LEN(Sheet1!$A119) - FIND(" ", Sheet1!$A119))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I120" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="121" spans="9:9">
+        <f>RIGHT(Sheet1!$A120, LEN(Sheet1!$A120) - FIND(" ", Sheet1!$A120))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I121" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="122" spans="9:9">
+        <f>RIGHT(Sheet1!$A121, LEN(Sheet1!$A121) - FIND(" ", Sheet1!$A121))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I122" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="123" spans="9:9">
+        <f>RIGHT(Sheet1!$A122, LEN(Sheet1!$A122) - FIND(" ", Sheet1!$A122))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I123" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="124" spans="9:9">
+        <f>RIGHT(Sheet1!$A123, LEN(Sheet1!$A123) - FIND(" ", Sheet1!$A123))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I124" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="125" spans="9:9">
+        <f>RIGHT(Sheet1!$A124, LEN(Sheet1!$A124) - FIND(" ", Sheet1!$A124))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I125" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="126" spans="9:9">
+        <f>RIGHT(Sheet1!$A125, LEN(Sheet1!$A125) - FIND(" ", Sheet1!$A125))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I126" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="127" spans="9:9">
+        <f>RIGHT(Sheet1!$A126, LEN(Sheet1!$A126) - FIND(" ", Sheet1!$A126))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I127" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="128" spans="9:9">
+        <f>RIGHT(Sheet1!$A127, LEN(Sheet1!$A127) - FIND(" ", Sheet1!$A127))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I128" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="129" spans="9:9">
+        <f>RIGHT(Sheet1!$A128, LEN(Sheet1!$A128) - FIND(" ", Sheet1!$A128))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I129" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="130" spans="9:9">
+        <f>RIGHT(Sheet1!$A129, LEN(Sheet1!$A129) - FIND(" ", Sheet1!$A129))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I130" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="131" spans="9:9">
+        <f>RIGHT(Sheet1!$A130, LEN(Sheet1!$A130) - FIND(" ", Sheet1!$A130))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I131" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="132" spans="9:9">
+        <f>RIGHT(Sheet1!$A131, LEN(Sheet1!$A131) - FIND(" ", Sheet1!$A131))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I132" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="133" spans="9:9">
+        <f>RIGHT(Sheet1!$A132, LEN(Sheet1!$A132) - FIND(" ", Sheet1!$A132))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I133" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="134" spans="9:9">
+        <f>RIGHT(Sheet1!$A133, LEN(Sheet1!$A133) - FIND(" ", Sheet1!$A133))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I134" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="135" spans="9:9">
+        <f>RIGHT(Sheet1!$A134, LEN(Sheet1!$A134) - FIND(" ", Sheet1!$A134))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I135" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="136" spans="9:9">
+        <f>RIGHT(Sheet1!$A135, LEN(Sheet1!$A135) - FIND(" ", Sheet1!$A135))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I136" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="137" spans="9:9">
+        <f>RIGHT(Sheet1!$A136, LEN(Sheet1!$A136) - FIND(" ", Sheet1!$A136))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I137" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="138" spans="9:9">
+        <f>RIGHT(Sheet1!$A137, LEN(Sheet1!$A137) - FIND(" ", Sheet1!$A137))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I138" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="139" spans="9:9">
+        <f>RIGHT(Sheet1!$A138, LEN(Sheet1!$A138) - FIND(" ", Sheet1!$A138))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I139" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="140" spans="9:9">
+        <f>RIGHT(Sheet1!$A139, LEN(Sheet1!$A139) - FIND(" ", Sheet1!$A139))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I140" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="141" spans="9:9">
+        <f>RIGHT(Sheet1!$A140, LEN(Sheet1!$A140) - FIND(" ", Sheet1!$A140))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I141" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="142" spans="9:9">
+        <f>RIGHT(Sheet1!$A141, LEN(Sheet1!$A141) - FIND(" ", Sheet1!$A141))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I142" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="143" spans="9:9">
+        <f>RIGHT(Sheet1!$A142, LEN(Sheet1!$A142) - FIND(" ", Sheet1!$A142))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I143" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="144" spans="9:9">
+        <f>RIGHT(Sheet1!$A143, LEN(Sheet1!$A143) - FIND(" ", Sheet1!$A143))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I144" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="145" spans="9:9">
+        <f>RIGHT(Sheet1!$A144, LEN(Sheet1!$A144) - FIND(" ", Sheet1!$A144))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I145" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="146" spans="9:9">
+        <f>RIGHT(Sheet1!$A145, LEN(Sheet1!$A145) - FIND(" ", Sheet1!$A145))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I146" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="147" spans="9:9">
+        <f>RIGHT(Sheet1!$A146, LEN(Sheet1!$A146) - FIND(" ", Sheet1!$A146))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I147" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="148" spans="9:9">
+        <f>RIGHT(Sheet1!$A147, LEN(Sheet1!$A147) - FIND(" ", Sheet1!$A147))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I148" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="149" spans="9:9">
+        <f>RIGHT(Sheet1!$A148, LEN(Sheet1!$A148) - FIND(" ", Sheet1!$A148))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I149" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="150" spans="9:9">
+        <f>RIGHT(Sheet1!$A149, LEN(Sheet1!$A149) - FIND(" ", Sheet1!$A149))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I150" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="151" spans="9:9">
+        <f>RIGHT(Sheet1!$A150, LEN(Sheet1!$A150) - FIND(" ", Sheet1!$A150))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I151" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="152" spans="9:9">
+        <f>RIGHT(Sheet1!$A151, LEN(Sheet1!$A151) - FIND(" ", Sheet1!$A151))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I152" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="153" spans="9:9">
+        <f>RIGHT(Sheet1!$A152, LEN(Sheet1!$A152) - FIND(" ", Sheet1!$A152))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I153" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="154" spans="9:9">
+        <f>RIGHT(Sheet1!$A153, LEN(Sheet1!$A153) - FIND(" ", Sheet1!$A153))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I154" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="155" spans="9:9">
+        <f>RIGHT(Sheet1!$A154, LEN(Sheet1!$A154) - FIND(" ", Sheet1!$A154))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I155" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="156" spans="9:9">
+        <f>RIGHT(Sheet1!$A155, LEN(Sheet1!$A155) - FIND(" ", Sheet1!$A155))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I156" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="157" spans="9:9">
+        <f>RIGHT(Sheet1!$A156, LEN(Sheet1!$A156) - FIND(" ", Sheet1!$A156))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I157" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="158" spans="9:9">
+        <f>RIGHT(Sheet1!$A157, LEN(Sheet1!$A157) - FIND(" ", Sheet1!$A157))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I158" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="159" spans="9:9">
+        <f>RIGHT(Sheet1!$A158, LEN(Sheet1!$A158) - FIND(" ", Sheet1!$A158))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I159" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="160" spans="9:9">
+        <f>RIGHT(Sheet1!$A159, LEN(Sheet1!$A159) - FIND(" ", Sheet1!$A159))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I160" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="161" spans="9:9">
+        <f>RIGHT(Sheet1!$A160, LEN(Sheet1!$A160) - FIND(" ", Sheet1!$A160))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I161" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="162" spans="9:9">
+        <f>RIGHT(Sheet1!$A161, LEN(Sheet1!$A161) - FIND(" ", Sheet1!$A161))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I162" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="163" spans="9:9">
+        <f>RIGHT(Sheet1!$A162, LEN(Sheet1!$A162) - FIND(" ", Sheet1!$A162))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I163" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="164" spans="9:9">
+        <f>RIGHT(Sheet1!$A163, LEN(Sheet1!$A163) - FIND(" ", Sheet1!$A163))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I164" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="165" spans="9:9">
+        <f>RIGHT(Sheet1!$A164, LEN(Sheet1!$A164) - FIND(" ", Sheet1!$A164))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I165" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="166" spans="9:9">
+        <f>RIGHT(Sheet1!$A165, LEN(Sheet1!$A165) - FIND(" ", Sheet1!$A165))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I166" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="167" spans="9:9">
+        <f>RIGHT(Sheet1!$A166, LEN(Sheet1!$A166) - FIND(" ", Sheet1!$A166))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I167" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="168" spans="9:9">
+        <f>RIGHT(Sheet1!$A167, LEN(Sheet1!$A167) - FIND(" ", Sheet1!$A167))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I168" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="169" spans="9:9">
+        <f>RIGHT(Sheet1!$A168, LEN(Sheet1!$A168) - FIND(" ", Sheet1!$A168))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I169" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="170" spans="9:9">
+        <f>RIGHT(Sheet1!$A169, LEN(Sheet1!$A169) - FIND(" ", Sheet1!$A169))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I170" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="171" spans="9:9">
+        <f>RIGHT(Sheet1!$A170, LEN(Sheet1!$A170) - FIND(" ", Sheet1!$A170))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I171" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="172" spans="9:9">
+        <f>RIGHT(Sheet1!$A171, LEN(Sheet1!$A171) - FIND(" ", Sheet1!$A171))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I172" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="173" spans="9:9">
+        <f>RIGHT(Sheet1!$A172, LEN(Sheet1!$A172) - FIND(" ", Sheet1!$A172))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I173" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="174" spans="9:9">
+        <f>RIGHT(Sheet1!$A173, LEN(Sheet1!$A173) - FIND(" ", Sheet1!$A173))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I174" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="175" spans="9:9">
+        <f>RIGHT(Sheet1!$A174, LEN(Sheet1!$A174) - FIND(" ", Sheet1!$A174))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I175" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="176" spans="9:9">
+        <f>RIGHT(Sheet1!$A175, LEN(Sheet1!$A175) - FIND(" ", Sheet1!$A175))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I176" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="177" spans="9:9">
+        <f>RIGHT(Sheet1!$A176, LEN(Sheet1!$A176) - FIND(" ", Sheet1!$A176))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I177" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="178" spans="9:9">
+        <f>RIGHT(Sheet1!$A177, LEN(Sheet1!$A177) - FIND(" ", Sheet1!$A177))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I178" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="179" spans="9:9">
+        <f>RIGHT(Sheet1!$A178, LEN(Sheet1!$A178) - FIND(" ", Sheet1!$A178))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I179" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="180" spans="9:9">
+        <f>RIGHT(Sheet1!$A179, LEN(Sheet1!$A179) - FIND(" ", Sheet1!$A179))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I180" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="181" spans="9:9">
+        <f>RIGHT(Sheet1!$A180, LEN(Sheet1!$A180) - FIND(" ", Sheet1!$A180))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I181" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="182" spans="9:9">
+        <f>RIGHT(Sheet1!$A181, LEN(Sheet1!$A181) - FIND(" ", Sheet1!$A181))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I182" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="183" spans="9:9">
+        <f>RIGHT(Sheet1!$A182, LEN(Sheet1!$A182) - FIND(" ", Sheet1!$A182))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I183" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="184" spans="9:9">
+        <f>RIGHT(Sheet1!$A183, LEN(Sheet1!$A183) - FIND(" ", Sheet1!$A183))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I184" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="185" spans="9:9">
+        <f>RIGHT(Sheet1!$A184, LEN(Sheet1!$A184) - FIND(" ", Sheet1!$A184))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I185" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="186" spans="9:9">
+        <f>RIGHT(Sheet1!$A185, LEN(Sheet1!$A185) - FIND(" ", Sheet1!$A185))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I186" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="187" spans="9:9">
+        <f>RIGHT(Sheet1!$A186, LEN(Sheet1!$A186) - FIND(" ", Sheet1!$A186))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I187" t="e">
-        <f>RIGHT(Table1[[#This Row],[DisplayName]], LEN(Table1[[#This Row],[DisplayName]]) - FIND(" ", Table1[[#This Row],[DisplayName]]))</f>
+        <f>RIGHT(Sheet1!$A187, LEN(Sheet1!$A187) - FIND(" ", Sheet1!$A187))</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{636EE644-15BF-4337-AB0E-0FEB3C314373}"/>
-    <hyperlink ref="J2" r:id="rId2" xr:uid="{47CD225B-6F00-4C74-99A4-FE24D83EC087}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{C81438EA-6EEE-4B7D-A758-48D0BA97E07A}"/>
-    <hyperlink ref="J3" r:id="rId4" xr:uid="{8DDB95B8-7EEC-412F-BE3C-1CB17D04A5C0}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{9B48A905-F7BB-443E-A290-A7793D3FB07B}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{C96FC615-7E16-4C1B-85D2-5E160C77233F}"/>
-    <hyperlink ref="J5" r:id="rId7" xr:uid="{2EE307F9-AB84-4582-8786-B8FDED4F74A3}"/>
-    <hyperlink ref="J4" r:id="rId8" xr:uid="{5816AA23-BB4A-46F0-9B1F-08DD954124CB}"/>
-    <hyperlink ref="E6" r:id="rId9" xr:uid="{43EFB099-4A18-4D89-AB1B-5F6F02FB058E}"/>
-    <hyperlink ref="J6" r:id="rId10" xr:uid="{EAEF5039-C9E7-4987-8CEF-8138EB463DC5}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{A6E30D66-ED0D-4E69-86D8-2A8A0305C757}"/>
-    <hyperlink ref="J7" r:id="rId12" xr:uid="{FF3AEFFA-79A2-461B-B001-D02D5B291319}"/>
-    <hyperlink ref="E8" r:id="rId13" xr:uid="{7A8D014C-E97E-45CA-B880-8D8FAA739131}"/>
-    <hyperlink ref="J8" r:id="rId14" xr:uid="{217C7D18-D73E-461D-BDD7-548BB03D5CB1}"/>
-    <hyperlink ref="E9" r:id="rId15" xr:uid="{F5D503B6-E163-4D9E-B66D-CDCFB8E41688}"/>
-    <hyperlink ref="J9" r:id="rId16" xr:uid="{5CD374D0-D519-4BF2-9E23-A018CB1DE9D6}"/>
-    <hyperlink ref="E10" r:id="rId17" xr:uid="{ADBADCC8-253C-4F6C-90B2-0E1EE5401A5F}"/>
-    <hyperlink ref="J10" r:id="rId18" xr:uid="{0D9A6D3D-4A9E-4E96-BDC3-B5E8A1CA8F53}"/>
-    <hyperlink ref="E11" r:id="rId19" xr:uid="{F6E9F0C1-78D8-40FF-9904-A3ED38CA0064}"/>
-    <hyperlink ref="J11" r:id="rId20" xr:uid="{C6E6DE01-09EA-4E99-81B1-A7B06873A3C9}"/>
-    <hyperlink ref="E12" r:id="rId21" xr:uid="{D592420D-2CE4-4900-9845-4C44E72BBC19}"/>
-    <hyperlink ref="J12" r:id="rId22" xr:uid="{F8E4FBBD-B789-480E-A799-D85853B4FEE4}"/>
-    <hyperlink ref="E13" r:id="rId23" xr:uid="{1349C44A-52D3-4DC6-B9BF-6B5522C399C4}"/>
-    <hyperlink ref="J13" r:id="rId24" xr:uid="{EA1F9AA8-D4F5-48CF-BB57-D2CFC0DF5E14}"/>
-    <hyperlink ref="E14" r:id="rId25" xr:uid="{B6891F50-D638-4152-B318-6AC46926E142}"/>
-    <hyperlink ref="J14" r:id="rId26" xr:uid="{A3EC7880-D664-49F4-A028-9A3E138070A3}"/>
-    <hyperlink ref="E15" r:id="rId27" xr:uid="{C62872ED-4BBB-430D-973C-B5FEE22AB5F5}"/>
-    <hyperlink ref="J15" r:id="rId28" xr:uid="{95FC3F4C-89D6-4A95-99F7-D1486CC19BD5}"/>
-    <hyperlink ref="E16" r:id="rId29" xr:uid="{AAA11F60-241A-4644-B999-40624CD7BC20}"/>
-    <hyperlink ref="J16" r:id="rId30" xr:uid="{0A4183F1-7CE9-4036-8ECB-0B69BFDDFD64}"/>
-    <hyperlink ref="E17" r:id="rId31" xr:uid="{2470B1B5-E3F9-458A-8B4B-789B908AFD69}"/>
-    <hyperlink ref="J17" r:id="rId32" xr:uid="{34B4C7E0-98C7-4129-83A0-E20ED6C133B9}"/>
-    <hyperlink ref="E18" r:id="rId33" xr:uid="{95249D8E-3256-4685-B34D-C67D2BE2EF7F}"/>
-    <hyperlink ref="J18" r:id="rId34" xr:uid="{66DECC94-493A-4BEE-96F3-9724497F4444}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="J5" r:id="rId7"/>
+    <hyperlink ref="J4" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="E7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="E8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="E9" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="E10" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="E11" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="E12" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
+    <hyperlink ref="E13" r:id="rId23"/>
+    <hyperlink ref="J13" r:id="rId24"/>
+    <hyperlink ref="E14" r:id="rId25"/>
+    <hyperlink ref="J14" r:id="rId26"/>
+    <hyperlink ref="E15" r:id="rId27"/>
+    <hyperlink ref="J15" r:id="rId28"/>
+    <hyperlink ref="E16" r:id="rId29"/>
+    <hyperlink ref="J16" r:id="rId30"/>
+    <hyperlink ref="E17" r:id="rId31"/>
+    <hyperlink ref="J17" r:id="rId32"/>
+    <hyperlink ref="E18" r:id="rId33"/>
+    <hyperlink ref="J18" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2410,12 +2415,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001340A8121B8284490BE5DF29D0D7587" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e81a42f744c00301c17191f2910b3d83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="81c8b48b-a8b4-48ca-9ad3-569b042be398" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5975806ac3e51158048f8b26bf1ba5ae" ns2:_="">
     <xsd:import namespace="81c8b48b-a8b4-48ca-9ad3-569b042be398"/>
@@ -2553,7 +2552,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2562,14 +2561,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C654412C-6914-451D-A842-AC4B0D48CCE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC628CE-A653-475A-985A-378764FDC8F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="81c8b48b-a8b4-48ca-9ad3-569b042be398"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC628CE-A653-475A-985A-378764FDC8F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416D30F5-18C0-4F4E-B0E0-F62960C4BDEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{416D30F5-18C0-4F4E-B0E0-F62960C4BDEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3801EC56-755A-4943-8A93-8AB9D45BBC79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>